--- a/data/meta_model/m1.main.xlsx
+++ b/data/meta_model/m1.main.xlsx
@@ -425,10 +425,10 @@
         <v>381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.239723707279483</v>
+        <v>0.240929464501854</v>
       </c>
       <c r="F2" t="n">
-        <v>14.8560606078556</v>
+        <v>14.9050332812142</v>
       </c>
     </row>
     <row r="3">
@@ -585,10 +585,10 @@
         <v>337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.239723707279483</v>
+        <v>0.240929464501854</v>
       </c>
       <c r="F10" t="n">
-        <v>14.8560606078556</v>
+        <v>14.9050332812142</v>
       </c>
     </row>
     <row r="11">
@@ -645,10 +645,10 @@
         <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>0.239723707279483</v>
+        <v>0.240929464501854</v>
       </c>
       <c r="F13" t="n">
-        <v>14.8560606078556</v>
+        <v>14.9050332812142</v>
       </c>
     </row>
     <row r="14">
